--- a/database/OLD/RAPRO22232023/GK/GK.xlsx
+++ b/database/OLD/RAPRO22232023/GK/GK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -20271,7 +20271,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -20622,7 +20622,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -21402,7 +21402,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -21675,7 +21675,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -23118,7 +23118,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C582" t="n">
@@ -24756,7 +24756,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C624" t="n">
@@ -25029,7 +25029,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C631" t="n">
@@ -25068,7 +25068,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C632" t="n">

--- a/database/OLD/RAPRO22232023/GK/GK.xlsx
+++ b/database/OLD/RAPRO22232023/GK/GK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -21402,7 +21402,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -24756,7 +24756,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C624" t="n">

--- a/database/OLD/RAPRO22232023/GK/GK.xlsx
+++ b/database/OLD/RAPRO22232023/GK/GK.xlsx
@@ -23352,7 +23352,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="C588" t="n">
